--- a/用例数据/沪A/企业债/企业债买卖/测试结果.xlsx
+++ b/用例数据/沪A/企业债/企业债买卖/测试结果.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stklist" sheetId="1" r:id="rId1"/>
+    <sheet name="tradinglog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +19,888 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="287">
+  <si>
+    <t>EXCHID</t>
+  </si>
+  <si>
+    <t>ACCTID</t>
+  </si>
+  <si>
+    <t>CUSTID</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>REGNAME</t>
+  </si>
+  <si>
+    <t>OFFERREGID</t>
+  </si>
+  <si>
+    <t>STKID</t>
+  </si>
+  <si>
+    <t>STKNAME</t>
+  </si>
+  <si>
+    <t>EXCHTRUSTEESHIPQTY</t>
+  </si>
+  <si>
+    <t>PREVIOUSQTY</t>
+  </si>
+  <si>
+    <t>PREVIOUSCOST</t>
+  </si>
+  <si>
+    <t>STKVALUE</t>
+  </si>
+  <si>
+    <t>PREVIOUSINCOME</t>
+  </si>
+  <si>
+    <t>USABLEQTY</t>
+  </si>
+  <si>
+    <t>CURRENTQTY</t>
+  </si>
+  <si>
+    <t>UNSALEABLEQTY</t>
+  </si>
+  <si>
+    <t>SELLFROZENQTY</t>
+  </si>
+  <si>
+    <t>BUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>EXCEPTFROZENQTY</t>
+  </si>
+  <si>
+    <t>REALTIMECOST</t>
+  </si>
+  <si>
+    <t>REALTIMEINCOME</t>
+  </si>
+  <si>
+    <t>CURRENCYID</t>
+  </si>
+  <si>
+    <t>STKTYPE</t>
+  </si>
+  <si>
+    <t>TRADETYPE</t>
+  </si>
+  <si>
+    <t>DESKID</t>
+  </si>
+  <si>
+    <t>CURRENTSTKVALUE</t>
+  </si>
+  <si>
+    <t>NEWPRICE</t>
+  </si>
+  <si>
+    <t>ETFKNOCKQTY</t>
+  </si>
+  <si>
+    <t>SELLUSEDQTY</t>
+  </si>
+  <si>
+    <t>ETFUSEDQTY</t>
+  </si>
+  <si>
+    <t>NEEDSETTLEQTY</t>
+  </si>
+  <si>
+    <t>IMPAWNQTY</t>
+  </si>
+  <si>
+    <t>WARRANTUSEDQTY</t>
+  </si>
+  <si>
+    <t>BONDPLEDGEQTY</t>
+  </si>
+  <si>
+    <t>BONDPLEDGEUSABLEQTY</t>
+  </si>
+  <si>
+    <t>HOLDSTATUS</t>
+  </si>
+  <si>
+    <t>CREDITSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CURRENTCREDITSHAREQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREFROZENQTY</t>
+  </si>
+  <si>
+    <t>GUARANTYQTY</t>
+  </si>
+  <si>
+    <t>CURRENTQTYF</t>
+  </si>
+  <si>
+    <t>CUSTBRANCHID</t>
+  </si>
+  <si>
+    <t>GOINGBUYQTY</t>
+  </si>
+  <si>
+    <t>TOTALSELLQTY</t>
+  </si>
+  <si>
+    <t>SELLLIMITQTY</t>
+  </si>
+  <si>
+    <t>WAITSETTLEQTY</t>
+  </si>
+  <si>
+    <t>EXCHFROZENQTY</t>
+  </si>
+  <si>
+    <t>DIVIDENDAMT</t>
+  </si>
+  <si>
+    <t>DIVIDENDQTY</t>
+  </si>
+  <si>
+    <t>AGREEREPOQTY</t>
+  </si>
+  <si>
+    <t>QBONDPLEDGEQTY</t>
+  </si>
+  <si>
+    <t>QBONDPLEDGEUSABLEQTY</t>
+  </si>
+  <si>
+    <t>EXCHSELLFROZENQTY</t>
+  </si>
+  <si>
+    <t>ETFPURCHASEFROZENQTY</t>
+  </si>
+  <si>
+    <t>INTSUSABLEQTY</t>
+  </si>
+  <si>
+    <t>INTSBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>INTSSELLUSEDQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENAMT</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEAMT</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENFEE</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEFEE</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENQTY</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENUSABLEQTY</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>SETTLEPREVIOUSCOST</t>
+  </si>
+  <si>
+    <t>SETTLESTKVALUE</t>
+  </si>
+  <si>
+    <t>SETTLEPREVIOUSINCOME</t>
+  </si>
+  <si>
+    <t>EXCHRATE</t>
+  </si>
+  <si>
+    <t>CREDITINSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CREDITINSHAREQTY</t>
+  </si>
+  <si>
+    <t>CREDITOUTSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CREDITOUTSHAREQTY</t>
+  </si>
+  <si>
+    <t>NOUSEINITQTY</t>
+  </si>
+  <si>
+    <t>USEDUNFROZENQTY</t>
+  </si>
+  <si>
+    <t>FASTUPDATECNT</t>
+  </si>
+  <si>
+    <t>CREDITSPAREQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTBUYQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTSELLQTY</t>
+  </si>
+  <si>
+    <t>OCCURCREDITLOCKSHAREQTY</t>
+  </si>
+  <si>
+    <t>GAPFROZENQTY</t>
+  </si>
+  <si>
+    <t>ZRTTRANSQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>000011721200</t>
+  </si>
+  <si>
+    <t>A117212000</t>
+  </si>
+  <si>
+    <t>焦振鹏主股东</t>
+  </si>
+  <si>
+    <t>110043</t>
+  </si>
+  <si>
+    <t>无锡转债</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1201.24020000</t>
+  </si>
+  <si>
+    <t>127391.0000</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>00W40</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>115.8100</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
+    <t>000011725200</t>
+  </si>
+  <si>
+    <t>A117252000</t>
+  </si>
+  <si>
+    <t>1995900</t>
+  </si>
+  <si>
+    <t>115.54000000</t>
+  </si>
+  <si>
+    <t>231145179.0000</t>
+  </si>
+  <si>
+    <t>613809.380</t>
+  </si>
+  <si>
+    <t>0.00000000</t>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIALNUM</t>
+  </si>
+  <si>
+    <t>BRIEFID</t>
+  </si>
+  <si>
+    <t>RECKONINGTIME</t>
+  </si>
+  <si>
+    <t>OCCURTIME</t>
+  </si>
+  <si>
+    <t>CONTRACTNUM</t>
+  </si>
+  <si>
+    <t>BANKSERIALNUM</t>
+  </si>
+  <si>
+    <t>BANKID</t>
+  </si>
+  <si>
+    <t>ACCTNAME</t>
+  </si>
+  <si>
+    <t>BRANCHID</t>
+  </si>
+  <si>
+    <t>OPTMODE</t>
+  </si>
+  <si>
+    <t>OPTID</t>
+  </si>
+  <si>
+    <t>ORDERTYPE</t>
+  </si>
+  <si>
+    <t>KNOCKQTY</t>
+  </si>
+  <si>
+    <t>KNOCKPRICE</t>
+  </si>
+  <si>
+    <t>KNOCKTIME</t>
+  </si>
+  <si>
+    <t>RECKONINGAMT</t>
+  </si>
+  <si>
+    <t>KNOCKAMT</t>
+  </si>
+  <si>
+    <t>POSTAMT</t>
+  </si>
+  <si>
+    <t>POSTQTY</t>
+  </si>
+  <si>
+    <t>STAMPTAX</t>
+  </si>
+  <si>
+    <t>STANDARDCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>COMMISION</t>
+  </si>
+  <si>
+    <t>TRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>RECKONINGFEE</t>
+  </si>
+  <si>
+    <t>TRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>PERORDERFEE</t>
+  </si>
+  <si>
+    <t>WITHDRAWFEE</t>
+  </si>
+  <si>
+    <t>KNOCKFEE</t>
+  </si>
+  <si>
+    <t>HANDLINGFEE</t>
+  </si>
+  <si>
+    <t>STKMNGFEE</t>
+  </si>
+  <si>
+    <t>EXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>VENTUREFEE</t>
+  </si>
+  <si>
+    <t>OPTLEVEL</t>
+  </si>
+  <si>
+    <t>CUSTTYPE</t>
+  </si>
+  <si>
+    <t>CUSTNAME</t>
+  </si>
+  <si>
+    <t>BROKERID</t>
+  </si>
+  <si>
+    <t>OPTBRANCHID</t>
+  </si>
+  <si>
+    <t>COSTCENTERID</t>
+  </si>
+  <si>
+    <t>NOTENUM</t>
+  </si>
+  <si>
+    <t>DEPOSITINTEREST</t>
+  </si>
+  <si>
+    <t>DEPOSITSUM</t>
+  </si>
+  <si>
+    <t>SALESID</t>
+  </si>
+  <si>
+    <t>UNDOFLAG</t>
+  </si>
+  <si>
+    <t>CHECKORCASH</t>
+  </si>
+  <si>
+    <t>ACCOUNTINGFLAG</t>
+  </si>
+  <si>
+    <t>AUDITOPTID1</t>
+  </si>
+  <si>
+    <t>AUDITOPTID2</t>
+  </si>
+  <si>
+    <t>GETACCOUNTDATE</t>
+  </si>
+  <si>
+    <t>GETACCOUNTNUM</t>
+  </si>
+  <si>
+    <t>MEMO</t>
+  </si>
+  <si>
+    <t>ACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>FULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>BANKACCTID</t>
+  </si>
+  <si>
+    <t>BANKAMT</t>
+  </si>
+  <si>
+    <t>RIGHTOWNFLAG</t>
+  </si>
+  <si>
+    <t>SELFFLAG</t>
+  </si>
+  <si>
+    <t>BANKCONTRACTNUM</t>
+  </si>
+  <si>
+    <t>OFFERTIME</t>
+  </si>
+  <si>
+    <t>CHARGETYPE</t>
+  </si>
+  <si>
+    <t>DISCOUNTAMT</t>
+  </si>
+  <si>
+    <t>OVERDUEAMT</t>
+  </si>
+  <si>
+    <t>CONFIRMRESULT</t>
+  </si>
+  <si>
+    <t>AUDITOPTID</t>
+  </si>
+  <si>
+    <t>CONFIRMTIME</t>
+  </si>
+  <si>
+    <t>TODAYCHARGEFLAG</t>
+  </si>
+  <si>
+    <t>RECKONINGCHECKFLAG</t>
+  </si>
+  <si>
+    <t>STKRECKCHKFLAG</t>
+  </si>
+  <si>
+    <t>CUSTODYMODE</t>
+  </si>
+  <si>
+    <t>CONFIRMFEE</t>
+  </si>
+  <si>
+    <t>AGENCYFEE</t>
+  </si>
+  <si>
+    <t>ORDERSTKID</t>
+  </si>
+  <si>
+    <t>PRICE1</t>
+  </si>
+  <si>
+    <t>PRICE2</t>
+  </si>
+  <si>
+    <t>INTERNALBIZMARK</t>
+  </si>
+  <si>
+    <t>CREDITSTOCKFLAG</t>
+  </si>
+  <si>
+    <t>TRANSACTIONREF</t>
+  </si>
+  <si>
+    <t>RMSTRADEID</t>
+  </si>
+  <si>
+    <t>INTERESTMODE</t>
+  </si>
+  <si>
+    <t>SETTLEDATE</t>
+  </si>
+  <si>
+    <t>KNOCKQTYF</t>
+  </si>
+  <si>
+    <t>CUSTBANKID</t>
+  </si>
+  <si>
+    <t>INTERNALORDERTYPE</t>
+  </si>
+  <si>
+    <t>CUSTBANKACCTID</t>
+  </si>
+  <si>
+    <t>CUSTBANKTRANSPERSION</t>
+  </si>
+  <si>
+    <t>TACODE</t>
+  </si>
+  <si>
+    <t>SETTLEMENTMETHOD</t>
+  </si>
+  <si>
+    <t>PROJECTID</t>
+  </si>
+  <si>
+    <t>DELIVERYTYPE</t>
+  </si>
+  <si>
+    <t>TAACCOUNTID</t>
+  </si>
+  <si>
+    <t>CREDITFUNDFLAG</t>
+  </si>
+  <si>
+    <t>SUBCLIENTID</t>
+  </si>
+  <si>
+    <t>ISSOLICITED</t>
+  </si>
+  <si>
+    <t>BASKETID</t>
+  </si>
+  <si>
+    <t>EXTERIORACCTID</t>
+  </si>
+  <si>
+    <t>TDELIVERFLAG</t>
+  </si>
+  <si>
+    <t>OFFSETFLAG</t>
+  </si>
+  <si>
+    <t>EXCHMARGINAMT</t>
+  </si>
+  <si>
+    <t>CUSTMARGINAMT</t>
+  </si>
+  <si>
+    <t>CLOSEPNL</t>
+  </si>
+  <si>
+    <t>REALTIMEPNL</t>
+  </si>
+  <si>
+    <t>OPENDATE</t>
+  </si>
+  <si>
+    <t>OPENKNOCKCODE</t>
+  </si>
+  <si>
+    <t>TRADECURRENCYID</t>
+  </si>
+  <si>
+    <t>TRADERECKONINGAMT</t>
+  </si>
+  <si>
+    <t>SETTLEKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEFULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>SETTLESTAMPTAX</t>
+  </si>
+  <si>
+    <t>SETTLECOMMISION</t>
+  </si>
+  <si>
+    <t>SETTLETRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLERECKONINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLETRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>SETTLEHANDLINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLESTKMNGFEE</t>
+  </si>
+  <si>
+    <t>SETTLEEXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLEVENTUREFEE</t>
+  </si>
+  <si>
+    <t>SECUAMT</t>
+  </si>
+  <si>
+    <t>SETTLESECUAMT</t>
+  </si>
+  <si>
+    <t>PERMITPHONE</t>
+  </si>
+  <si>
+    <t>OPERATIONMAC</t>
+  </si>
+  <si>
+    <t>SHAREATTR</t>
+  </si>
+  <si>
+    <t>SETTLEMODE</t>
+  </si>
+  <si>
+    <t>FIRSTOTHERFEE</t>
+  </si>
+  <si>
+    <t>SECONDOTHERFEE</t>
+  </si>
+  <si>
+    <t>LISTEDSTATUS</t>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>BUSINESSCODE</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30000267</t>
+  </si>
+  <si>
+    <t>005_001_001</t>
+  </si>
+  <si>
+    <t>20221213225912</t>
+  </si>
+  <si>
+    <t>0390000007</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1201.00000000</t>
+  </si>
+  <si>
+    <t>20221213102505</t>
+  </si>
+  <si>
+    <t>-120124.020</t>
+  </si>
+  <si>
+    <t>120100.000</t>
+  </si>
+  <si>
+    <t>-92436690.920</t>
+  </si>
+  <si>
+    <t>24.020</t>
+  </si>
+  <si>
+    <t>0.120</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>99998</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>1200801000004433</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000007094989</t>
+  </si>
+  <si>
+    <t>NONDVP</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>30000278</t>
+  </si>
+  <si>
+    <t>0390001034</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>20221213130010</t>
+  </si>
+  <si>
+    <t>-1201240.200</t>
+  </si>
+  <si>
+    <t>1201000.000</t>
+  </si>
+  <si>
+    <t>-103827885.020</t>
+  </si>
+  <si>
+    <t>240.200</t>
+  </si>
+  <si>
+    <t>1.200</t>
+  </si>
+  <si>
+    <t>1200801000004574</t>
+  </si>
+  <si>
+    <t>000007094947</t>
+  </si>
+  <si>
+    <t>30000291</t>
+  </si>
+  <si>
+    <t>005_002_001</t>
+  </si>
+  <si>
+    <t>0050001001</t>
+  </si>
+  <si>
+    <t>120075.980</t>
+  </si>
+  <si>
+    <t>9432876.810</t>
+  </si>
+  <si>
+    <t>000007094990</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +924,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +945,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +990,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +1025,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +1207,2277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EC4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/用例数据/沪A/企业债/企业债买卖/测试结果.xlsx
+++ b/用例数据/沪A/企业债/企业债买卖/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="289">
   <si>
     <t>EXCHID</t>
   </si>
@@ -791,9 +791,6 @@
     <t>24.020</t>
   </si>
   <si>
-    <t>0.120</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -857,9 +854,6 @@
     <t>240.200</t>
   </si>
   <si>
-    <t>1.200</t>
-  </si>
-  <si>
     <t>1200801000004574</t>
   </si>
   <si>
@@ -882,6 +876,22 @@
   </si>
   <si>
     <t>000007094990</t>
+  </si>
+  <si>
+    <t>120100.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1213,16 +1223,16 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -2002,15 +2012,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,16 +2032,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="DB1" workbookViewId="0">
+      <selection activeCell="DT2" sqref="DT2:DT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -2450,7 +2461,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>242</v>
       </c>
@@ -2560,19 +2571,19 @@
         <v>96</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>99</v>
@@ -2584,16 +2595,16 @@
         <v>90</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AV2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>101</v>
@@ -2602,7 +2613,7 @@
         <v>96</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>87</v>
@@ -2614,7 +2625,7 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>87</v>
@@ -2623,7 +2634,7 @@
         <v>112</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>96</v>
@@ -2632,7 +2643,7 @@
         <v>87</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>87</v>
@@ -2647,10 +2658,10 @@
         <v>96</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>86</v>
@@ -2662,31 +2673,31 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CA2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="CJ2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>103</v>
@@ -2695,37 +2706,37 @@
         <v>248</v>
       </c>
       <c r="CR2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="DI2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>96</v>
@@ -2755,7 +2766,7 @@
         <v>96</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="DU2" s="1" t="s">
         <v>96</v>
@@ -2773,7 +2784,7 @@
         <v>96</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="ED2" s="1" t="s">
         <v>96</v>
@@ -2788,9 +2799,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>243</v>
@@ -2808,7 +2819,7 @@
         <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>246</v>
@@ -2850,22 +2861,22 @@
         <v>248</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>250</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>93</v>
@@ -2874,10 +2885,10 @@
         <v>96</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>96</v>
@@ -2898,7 +2909,7 @@
         <v>96</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>96</v>
@@ -2910,7 +2921,7 @@
         <v>96</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>99</v>
@@ -2922,16 +2933,16 @@
         <v>90</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>101</v>
@@ -2940,7 +2951,7 @@
         <v>96</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>87</v>
@@ -2952,7 +2963,7 @@
         <v>86</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>87</v>
@@ -2961,7 +2972,7 @@
         <v>112</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>96</v>
@@ -2970,7 +2981,7 @@
         <v>87</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>87</v>
@@ -2985,10 +2996,10 @@
         <v>96</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>86</v>
@@ -3000,7 +3011,7 @@
         <v>86</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>96</v>
@@ -3018,13 +3029,13 @@
         <v>87</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>103</v>
@@ -3033,46 +3044,46 @@
         <v>248</v>
       </c>
       <c r="CR3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CT3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="DI3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DN3" s="1" t="s">
         <v>112</v>
@@ -3081,7 +3092,7 @@
         <v>96</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DQ3" s="1" t="s">
         <v>96</v>
@@ -3093,7 +3104,7 @@
         <v>96</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="DU3" s="1" t="s">
         <v>96</v>
@@ -3111,7 +3122,7 @@
         <v>96</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="ED3" s="1" t="s">
         <v>96</v>
@@ -3126,12 +3137,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>97</v>
@@ -3146,7 +3157,7 @@
         <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>246</v>
@@ -3185,7 +3196,7 @@
         <v>100</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>249</v>
@@ -3197,13 +3208,13 @@
         <v>251</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>108</v>
@@ -3236,19 +3247,19 @@
         <v>96</v>
       </c>
       <c r="AL4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>99</v>
@@ -3260,16 +3271,16 @@
         <v>90</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AV4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW4" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>101</v>
@@ -3278,7 +3289,7 @@
         <v>96</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>87</v>
@@ -3290,7 +3301,7 @@
         <v>86</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>87</v>
@@ -3308,7 +3319,7 @@
         <v>87</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>87</v>
@@ -3323,10 +3334,10 @@
         <v>96</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>86</v>
@@ -3338,7 +3349,7 @@
         <v>86</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>96</v>
@@ -3356,52 +3367,52 @@
         <v>87</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="CN4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE4" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="DI4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>96</v>
@@ -3431,7 +3442,7 @@
         <v>96</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="DU4" s="1" t="s">
         <v>96</v>
@@ -3449,7 +3460,7 @@
         <v>96</v>
       </c>
       <c r="EC4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="ED4" s="1" t="s">
         <v>96</v>
@@ -3464,18 +3475,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
